--- a/server/LISTAS/ma/CORREDERA P CAJON.xlsx
+++ b/server/LISTAS/ma/CORREDERA P CAJON.xlsx
@@ -846,7 +846,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/CORREDERA P CAJON.xlsx
+++ b/server/LISTAS/ma/CORREDERA P CAJON.xlsx
@@ -846,7 +846,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/CORREDERA P CAJON.xlsx
+++ b/server/LISTAS/ma/CORREDERA P CAJON.xlsx
@@ -846,7 +846,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="C25" s="27" t="n"/>
       <c r="D25" s="12" t="n">
-        <v>635.976</v>
+        <v>1252.84</v>
       </c>
     </row>
     <row r="26" ht="19.5" customHeight="1" s="1">
@@ -935,7 +935,7 @@
       </c>
       <c r="C26" s="25" t="n"/>
       <c r="D26" s="12" t="n">
-        <v>709.125</v>
+        <v>1396.94</v>
       </c>
     </row>
     <row r="27" ht="19.5" customHeight="1" s="1">
@@ -951,7 +951,7 @@
       </c>
       <c r="C27" s="27" t="n"/>
       <c r="D27" s="12" t="n">
-        <v>799.207</v>
+        <v>1574.396</v>
       </c>
     </row>
     <row r="28" ht="19.5" customHeight="1" s="1">
@@ -967,7 +967,7 @@
       </c>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="13" t="n">
-        <v>875.0650000000001</v>
+        <v>1723.831</v>
       </c>
     </row>
     <row r="29" ht="19.5" customHeight="1" s="1">
@@ -983,7 +983,7 @@
       </c>
       <c r="C29" s="27" t="n"/>
       <c r="D29" s="12" t="n">
-        <v>961.752</v>
+        <v>1894.6</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="1">
@@ -999,7 +999,7 @@
       </c>
       <c r="C30" s="25" t="n"/>
       <c r="D30" s="13" t="n">
-        <v>1049.804</v>
+        <v>2068.056</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="1">
@@ -1011,17 +1011,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CORREDERA P CAJON.xlsx
+++ b/server/LISTAS/ma/CORREDERA P CAJON.xlsx
@@ -846,7 +846,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/CORREDERA P CAJON.xlsx
+++ b/server/LISTAS/ma/CORREDERA P CAJON.xlsx
@@ -846,7 +846,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1011,17 +1011,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CORREDERA P CAJON.xlsx
+++ b/server/LISTAS/ma/CORREDERA P CAJON.xlsx
@@ -846,7 +846,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1011,17 +1011,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CORREDERA P CAJON.xlsx
+++ b/server/LISTAS/ma/CORREDERA P CAJON.xlsx
@@ -846,7 +846,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1011,17 +1011,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/CORREDERA P CAJON.xlsx
+++ b/server/LISTAS/ma/CORREDERA P CAJON.xlsx
@@ -846,7 +846,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="C25" s="27" t="n"/>
       <c r="D25" s="12" t="n">
-        <v>635.976</v>
+        <v>1252.84</v>
       </c>
     </row>
     <row r="26" ht="19.5" customHeight="1" s="1">
@@ -935,7 +935,7 @@
       </c>
       <c r="C26" s="25" t="n"/>
       <c r="D26" s="12" t="n">
-        <v>709.125</v>
+        <v>1396.94</v>
       </c>
     </row>
     <row r="27" ht="19.5" customHeight="1" s="1">
@@ -951,7 +951,7 @@
       </c>
       <c r="C27" s="27" t="n"/>
       <c r="D27" s="12" t="n">
-        <v>799.207</v>
+        <v>1574.396</v>
       </c>
     </row>
     <row r="28" ht="19.5" customHeight="1" s="1">
@@ -967,7 +967,7 @@
       </c>
       <c r="C28" s="27" t="n"/>
       <c r="D28" s="13" t="n">
-        <v>875.0650000000001</v>
+        <v>1723.831</v>
       </c>
     </row>
     <row r="29" ht="19.5" customHeight="1" s="1">
@@ -983,7 +983,7 @@
       </c>
       <c r="C29" s="27" t="n"/>
       <c r="D29" s="12" t="n">
-        <v>961.752</v>
+        <v>1894.6</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1" s="1">
@@ -999,7 +999,7 @@
       </c>
       <c r="C30" s="25" t="n"/>
       <c r="D30" s="13" t="n">
-        <v>1049.804</v>
+        <v>2068.056</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1" s="1">
@@ -1011,17 +1011,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
